--- a/data/temp_report.xlsx
+++ b/data/temp_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School stuff\2018 - 2\Cop Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6DEF0C-1700-43A4-80B5-A149323821F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2BE910-7D00-495F-84E7-94387D4FC27C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13212" windowHeight="7884" xr2:uid="{00638514-AFF7-4C0E-88C3-26B8051EAA9B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>부국철강</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>43105</v>
+        <v>43286</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>

--- a/data/temp_report.xlsx
+++ b/data/temp_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School stuff\2018 - 2\Cop Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2BE910-7D00-495F-84E7-94387D4FC27C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B6AD4D-C9AE-45D7-A4DB-623B7FA81E78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13212" windowHeight="7884" xr2:uid="{00638514-AFF7-4C0E-88C3-26B8051EAA9B}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>43286</v>
+        <v>43348</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
